--- a/SquirrelGameStatus.xlsx
+++ b/SquirrelGameStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mori\Documents\Prosjekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryf\OneDrive\Dokumenter\GitHub\Squirrel-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD7CA6-328B-4E8A-94AC-7439D2C420DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CF1A7-A84E-4D4B-9CCC-7E0070B0A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{546C4DBB-D77F-4705-9161-E368E722748C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{546C4DBB-D77F-4705-9161-E368E722748C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>SQUIRELL GAME PLAYER STATUS</t>
   </si>
@@ -229,6 +229,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmm"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +360,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -491,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,9 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,12 +544,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +603,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <numFmt numFmtId="164" formatCode="dd/mmm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -648,6 +661,13 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -736,13 +756,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -806,16 +819,16 @@
     <sortCondition ref="A13:A56"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AF0919AF-1F75-426A-BB2C-7AD24DF4107A}" name="NAVN" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A5FAAC18-6EDE-4E39-96F7-A44255CEA3BB}" name="Status" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AF0919AF-1F75-426A-BB2C-7AD24DF4107A}" name="NAVN" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A5FAAC18-6EDE-4E39-96F7-A44255CEA3BB}" name="Status" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}" name="Tabell5" displayName="Tabell5" ref="D4:F8" totalsRowShown="0" tableBorderDxfId="5">
-  <autoFilter ref="D4:F8" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}" name="Tabell5" displayName="Tabell5" ref="D4:F11" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="D4:F11" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -830,7 +843,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1129,21 +1142,21 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1168,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1171,15 +1184,15 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="22"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1193,13 +1206,13 @@
       <c r="E4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1232,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -1228,7 +1241,7 @@
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="9">
         <v>44503</v>
@@ -1239,7 +1252,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1250,8 +1263,8 @@
       <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
-        <v>44503</v>
+      <c r="E7" s="33">
+        <v>44504</v>
       </c>
       <c r="F7" s="14">
         <v>3</v>
@@ -1259,7 +1272,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1268,10 +1281,10 @@
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
-        <v>44503</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44501</v>
       </c>
       <c r="F8" s="14">
         <v>3</v>
@@ -1279,7 +1292,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1287,29 +1300,39 @@
         <v>52</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="33">
+        <v>44504</v>
+      </c>
+      <c r="F9" s="14">
+        <v>3</v>
+      </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="D10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="33">
+        <v>44505</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1317,17 +1340,19 @@
         <v>52</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="16">
-        <v>50</v>
-      </c>
-      <c r="F11" s="22"/>
+      <c r="D11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="33">
+        <v>44505</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1335,18 +1360,13 @@
         <v>52</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="16">
-        <f>SUM(F5:F8)</f>
-        <v>12</v>
-      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1354,18 +1374,13 @@
         <v>52</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="17">
-        <f>E11+E12</f>
-        <v>62</v>
-      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1379,12 +1394,12 @@
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1393,7 +1408,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1407,7 +1422,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1436,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1435,7 +1450,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1449,7 +1464,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1463,7 +1478,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1492,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1491,7 +1506,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -1505,7 +1520,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1534,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1548,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1562,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -1561,12 +1576,12 @@
       <c r="G27" s="22"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
+      <c r="B28" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -1575,7 +1590,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1604,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1603,7 +1618,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1617,7 +1632,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
@@ -1631,7 +1646,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1660,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1674,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1688,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1687,7 +1702,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1716,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1715,7 +1730,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1744,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1758,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="23"/>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -1757,7 +1772,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1786,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>3</v>
       </c>
@@ -1785,7 +1800,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
@@ -1799,7 +1814,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -1813,7 +1828,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1842,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -1841,7 +1856,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1849,13 +1864,15 @@
         <v>52</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="D48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="11"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -1863,13 +1880,17 @@
         <v>52</v>
       </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="D49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="16">
+        <v>50</v>
+      </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -1877,13 +1898,18 @@
         <v>49</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="34">
+        <f>SUM(F5:F11)</f>
+        <v>19</v>
+      </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
@@ -1891,13 +1917,18 @@
         <v>52</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="D51" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="17">
+        <f>E49+E50</f>
+        <v>69</v>
+      </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>32</v>
       </c>
@@ -1911,7 +1942,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1956,7 @@
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
@@ -1939,7 +1970,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>52</v>
@@ -1951,8 +1982,8 @@
       <c r="G55" s="22"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
       <c r="B56" s="4" t="s">
         <v>52</v>
       </c>
@@ -1984,14 +2015,14 @@
       <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SquirrelGameStatus.xlsx
+++ b/SquirrelGameStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryf\OneDrive\Dokumenter\GitHub\Squirrel-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e06d60ada8792f35/Dokumenter/GitHub/Squirrel-Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CF1A7-A84E-4D4B-9CCC-7E0070B0A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{8B6CF1A7-A84E-4D4B-9CCC-7E0070B0A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70FF0754-2215-4880-95F7-B37D13838A42}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{546C4DBB-D77F-4705-9161-E368E722748C}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,12 +538,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,10 +554,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,13 +807,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B4CC8C-6191-4E14-9C0C-B372BF034691}" name="Tabell4" displayName="Tabell4" ref="A4:B56" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A4:B56" xr:uid="{F4B4CC8C-6191-4E14-9C0C-B372BF034691}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B4CC8C-6191-4E14-9C0C-B372BF034691}" name="Tabell4" displayName="Tabell4" ref="A4:B54" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A4:B54" xr:uid="{F4B4CC8C-6191-4E14-9C0C-B372BF034691}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B56">
-    <sortCondition ref="A13:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B54">
+    <sortCondition ref="A13:A54"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AF0919AF-1F75-426A-BB2C-7AD24DF4107A}" name="NAVN" dataDxfId="5"/>
@@ -827,8 +824,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}" name="Tabell5" displayName="Tabell5" ref="D4:F11" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="D4:F11" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}" name="Tabell5" displayName="Tabell5" ref="D4:F13" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="D4:F13" xr:uid="{2A17DC84-F81D-43B4-9A6C-4ED47E6A1A0C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1140,13 +1137,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFF7C07-3F00-49B0-8DED-9E6122C688AF}">
   <sheetPr codeName="Ark1"/>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.44140625" style="1"/>
@@ -1157,10 +1154,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -1168,7 +1165,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1184,11 +1181,11 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="22"/>
       <c r="H3" s="23"/>
     </row>
@@ -1212,7 +1209,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +1249,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1263,7 +1260,7 @@
       <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="29">
         <v>44504</v>
       </c>
       <c r="F7" s="14">
@@ -1272,7 +1269,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1292,7 +1289,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1300,10 +1297,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <v>44504</v>
       </c>
       <c r="F9" s="14">
@@ -1312,7 +1309,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1320,19 +1317,19 @@
         <v>49</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <v>44505</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <v>2</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1340,19 +1337,19 @@
         <v>52</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <v>44505</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="31">
         <v>2</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1360,13 +1357,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="29">
+        <v>44506</v>
+      </c>
+      <c r="F12" s="31">
+        <v>2</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1374,13 +1377,19 @@
         <v>52</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29">
+        <v>44506</v>
+      </c>
+      <c r="F13" s="31">
+        <v>2</v>
+      </c>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1403,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1417,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1431,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1436,12 +1445,12 @@
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -1450,7 +1459,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1464,7 +1473,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1487,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1501,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1515,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -1520,7 +1529,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1534,7 +1543,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1557,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1562,12 +1571,12 @@
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1576,7 +1585,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1590,7 +1599,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1604,7 +1613,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1618,7 +1627,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1632,7 +1641,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
@@ -1646,7 +1655,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1669,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1674,7 +1683,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1697,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1711,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
@@ -1716,7 +1725,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1730,7 +1739,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1753,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -1758,7 +1767,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="23"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1781,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -1786,7 +1795,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>3</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
@@ -1814,7 +1823,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -1828,7 +1837,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1851,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -1872,7 +1881,7 @@
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -1890,7 +1899,7 @@
       <c r="G49" s="22"/>
       <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -1901,15 +1910,15 @@
       <c r="D50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="34">
-        <f>SUM(F5:F11)</f>
-        <v>19</v>
+      <c r="E50" s="30">
+        <f>SUM(F5:F13)</f>
+        <v>23</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
     </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
@@ -1922,13 +1931,13 @@
       </c>
       <c r="E51" s="17">
         <f>E49+E50</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +1951,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1965,7 @@
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
@@ -1970,11 +1979,9 @@
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
-        <v>52</v>
-      </c>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -1982,11 +1989,9 @@
       <c r="G55" s="22"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="4" t="s">
-        <v>52</v>
-      </c>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -1994,35 +1999,15 @@
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
